--- a/data/trans_bre/P57_AF_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.665039573403238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-6.217668875101046</v>
+        <v>-6.217668875101051</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.09523876179799538</v>
@@ -649,7 +649,7 @@
         <v>0.03908100792157455</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1195982223718894</v>
+        <v>-0.1195982223718895</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.43380045671698</v>
+        <v>-12.22811684638132</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.149362718391674</v>
+        <v>-4.758821081918486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.432094983852508</v>
+        <v>-4.1201172658919</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.34078652030724</v>
+        <v>-12.3223034615373</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2144553483627006</v>
+        <v>-0.1997180517417848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.08371397069027658</v>
+        <v>-0.07928187981307802</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06261099119503799</v>
+        <v>-0.0569971089375179</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2095519497935132</v>
+        <v>-0.2234910087301939</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.884244141452321</v>
+        <v>1.602693610949994</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.16933397038233</v>
+        <v>10.66201577088284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.352230080448273</v>
+        <v>9.678106575995757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.1619006384825747</v>
+        <v>0.118380922951638</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05250843193787905</v>
+        <v>0.02773581458226034</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1837233671454861</v>
+        <v>0.1931666812267185</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1459921215576189</v>
+        <v>0.1510433658273808</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.003677911279135759</v>
+        <v>0.002373974310549047</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.954648254302085</v>
+        <v>-1.600718233657901</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.815770294094229</v>
+        <v>-1.887504547775986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.660451075441006</v>
+        <v>-7.118129626424148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.124248022743179</v>
+        <v>-8.402904448194061</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03398635625948152</v>
+        <v>-0.02881174555919078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03021617652309975</v>
+        <v>-0.0267327669915169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0905408316803213</v>
+        <v>-0.09652427460136537</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1327013565309654</v>
+        <v>-0.1374092313002773</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.05004537018509</v>
+        <v>12.99756996417821</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.62067436902864</v>
+        <v>13.18778641615714</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.366567914259789</v>
+        <v>7.618698128238444</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.227813523576284</v>
+        <v>4.290002034789555</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2625117647610231</v>
+        <v>0.251966954789564</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2231594625067093</v>
+        <v>0.2349929879625979</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1091779206101737</v>
+        <v>0.1148725492565223</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1008040445546403</v>
+        <v>0.08019032322509255</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.419880773342874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.9980817979246437</v>
+        <v>-0.9980817979246548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.01596099550341949</v>
@@ -849,7 +849,7 @@
         <v>0.01859638948076234</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01733075823273473</v>
+        <v>-0.01733075823273491</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.480524905070906</v>
+        <v>-9.98143685002557</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.892822909450643</v>
+        <v>-3.711921540249828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.209874517605185</v>
+        <v>-6.435596124736471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.571066226628101</v>
+        <v>-9.387727247259397</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1414570162659197</v>
+        <v>-0.1481505842176924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.06236319484480299</v>
+        <v>-0.05800477979752122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08216137888809756</v>
+        <v>-0.08082409043718194</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1414707654934843</v>
+        <v>-0.1554063389853838</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.917669837678268</v>
+        <v>7.197692100101952</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.42743466493448</v>
+        <v>11.13379181843604</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.796587016725029</v>
+        <v>8.313620073428098</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.531117711992955</v>
+        <v>6.406770980282499</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1096353975661075</v>
+        <v>0.1136108179845781</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1804835706284095</v>
+        <v>0.1935401837403741</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1169214421295636</v>
+        <v>0.1127125472225229</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1198131784446941</v>
+        <v>0.1152888131337013</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.3821591081978437</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.444602593151068</v>
+        <v>-1.444602593151079</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02035151935022348</v>
@@ -949,7 +949,7 @@
         <v>-0.005081885998903077</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.0243878518123922</v>
+        <v>-0.02438785181239238</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.235367838553465</v>
+        <v>-3.233149629574308</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.051919583702105</v>
+        <v>1.75901987714209</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.244962915052931</v>
+        <v>-4.369675757178511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.537152317738877</v>
+        <v>-5.797141261950152</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05030519302408219</v>
+        <v>-0.0496316385618927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03095272536764716</v>
+        <v>0.02742108336401832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05522329546644037</v>
+        <v>-0.05671507707499873</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09089835558156156</v>
+        <v>-0.09513698422456442</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.596685999085132</v>
+        <v>5.920531635965284</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.91190081065237</v>
+        <v>11.07215710962032</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.729768700132653</v>
+        <v>3.357964699210227</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.953983322464174</v>
+        <v>3.071987309945765</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08964310543913841</v>
+        <v>0.09448849873940363</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1780055995016016</v>
+        <v>0.1785771384039972</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05061447839957922</v>
+        <v>0.04547636538716298</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05106891610465189</v>
+        <v>0.05404141878923865</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.249859184451452</v>
+        <v>-3.279905723559352</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.143078266151798</v>
+        <v>-2.665488938760257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.316647021174953</v>
+        <v>-1.135248929991225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.037906116464423</v>
+        <v>-4.332447491138892</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.0339474522035968</v>
+        <v>-0.04892546850637814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.03060868391597305</v>
+        <v>-0.03421666821816019</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01561647153471164</v>
+        <v>-0.01373530520940207</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.05979288284464312</v>
+        <v>-0.06372976118218482</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.72956057864794</v>
+        <v>10.08202185366001</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.490384922935963</v>
+        <v>8.548924794698173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.735180702926997</v>
+        <v>7.761897567808189</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.895100504724259</v>
+        <v>6.717685915889551</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1819462934871922</v>
+        <v>0.1731225900038338</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1310304658126637</v>
+        <v>0.1346349737201739</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1028586367713116</v>
+        <v>0.1040247344647466</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1137462617504053</v>
+        <v>0.1142421626424003</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.09835998802667402</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.5386542770451472</v>
+        <v>0.5386542770451473</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.900650555726769</v>
+        <v>4.444892920131181</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.295519452028267</v>
+        <v>4.964444828050357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.053219992106254</v>
+        <v>1.333748253606912</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.82514533219605</v>
+        <v>9.760012905194822</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07379076172748031</v>
+        <v>0.08405665318222243</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09423251988299815</v>
+        <v>0.08583546899893646</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01433008746410132</v>
+        <v>0.01786776730270513</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2185861565727254</v>
+        <v>0.2003161139024895</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.14611996481974</v>
+        <v>17.03307132370529</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.36033803388962</v>
+        <v>18.88390722494171</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.27529861153294</v>
+        <v>13.08023443967815</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31.89417337717239</v>
+        <v>31.50804233811789</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4023307718718813</v>
+        <v>0.4018274901323119</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3954445570177902</v>
+        <v>0.4166653785242715</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.209084415663217</v>
+        <v>0.2022561724154717</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.080720425065022</v>
+        <v>1.053260231159606</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.892827101382154</v>
+        <v>-2.090480786795522</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.370344214999785</v>
+        <v>2.501117261061549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1267705156003166</v>
+        <v>0.07326042324003734</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.213024458718765</v>
+        <v>-1.271649707295432</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.03050658045022788</v>
+        <v>-0.03385211562242556</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03715092566271926</v>
+        <v>0.03961205317583289</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.001599558963967628</v>
+        <v>0.001091597097912715</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02051361298849668</v>
+        <v>-0.02188029235882189</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.048229549489053</v>
+        <v>2.86669557958769</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.264737748879277</v>
+        <v>7.171642471970034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.315934676805331</v>
+        <v>4.089038392696858</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.870784081574437</v>
+        <v>3.493596539445947</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05095582634658603</v>
+        <v>0.04784463337286355</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1197823203203453</v>
+        <v>0.1176273588189366</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05920701554174938</v>
+        <v>0.05645528365424211</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.07035053367421711</v>
+        <v>0.06291831402391601</v>
       </c>
     </row>
     <row r="25">
